--- a/biology/Zoologie/Anthemiphyllia/Anthemiphyllia.xlsx
+++ b/biology/Zoologie/Anthemiphyllia/Anthemiphyllia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anthemiphyllia Pourtalès, 1878[1] est un genre de corail qui fait partie de la famille des Anthemiphylliidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthemiphyllia Pourtalès, 1878 est un genre de corail qui fait partie de la famille des Anthemiphylliidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anthemiphyllia comprend les espèces suivantes :
-Selon ITIS      (9 décembre 2015)[2] :
+Selon ITIS      (9 décembre 2015) :
 Anthemiphyllia dentata Alcock, 1902
 Anthemiphyllia frustum Cairns, 1994
 Anthemiphyllia macrolobata Cairns, 1999
@@ -522,7 +536,7 @@
 Anthemiphyllia pacifica Vaughan, 1907
 Anthemiphyllia patera De Pourtalès, 1878
 Anthemiphyllia spinifera Cairns, 1999
-Selon World Register of Marine Species                               (9 décembre 2015)[3] :
+Selon World Register of Marine Species                               (9 décembre 2015) :
 Anthemiphyllia dentata Alcock, 1902
 Anthemiphyllia frustum Cairns, 1994
 Anthemiphyllia macrolobata Cairns, 1999
